--- a/lab4/results.xlsx
+++ b/lab4/results.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\systems-modeling\lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AE2BD07-BD76-41B3-9BDF-6AEE94AA7400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CC9618-56BC-44D1-A770-3A736694123C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EC6FA41C-63E7-4176-B277-B20A7580423F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
-    <sheet name="Аркуш1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="експеримент1" sheetId="1" r:id="rId1"/>
+    <sheet name="теоретично" sheetId="3" r:id="rId2"/>
+    <sheet name="експеримент2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,15 +38,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>O(n)</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -59,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -67,12 +91,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -127,7 +168,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Аркуш1!$A$1:$A$30</c:f>
+              <c:f>експеримент1!$A$1:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -226,7 +267,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Аркуш1!$B$1:$B$30</c:f>
+              <c:f>експеримент1!$B$1:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -347,7 +388,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Аркуш1!$A$1:$A$30</c:f>
+              <c:f>експеримент1!$A$1:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -446,7 +487,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Аркуш1!$C$1:$C$30</c:f>
+              <c:f>експеримент1!$C$1:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -567,7 +608,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Аркуш1!$A$1:$A$30</c:f>
+              <c:f>експеримент1!$A$1:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -666,7 +707,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Аркуш1!$D$1:$D$30</c:f>
+              <c:f>експеримент1!$D$1:$D$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -787,7 +828,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Аркуш1!$A$1:$A$30</c:f>
+              <c:f>експеримент1!$A$1:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -886,7 +927,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Аркуш1!$E$1:$E$30</c:f>
+              <c:f>експеримент1!$E$1:$E$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1202,6 +1243,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>екперимент</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1214,9 +1258,23 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Аркуш1!$A$1:$A$30</c:f>
+              <c:f>експеримент1!$A$1:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1315,7 +1373,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Аркуш1!$F$1:$F$30</c:f>
+              <c:f>експеримент1!$F$1:$F$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1416,6 +1474,229 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6946-425D-AE6A-15FEC9EB90AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>теорія</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>теоретично!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>теоретично!$F$2:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>21.838235294117649</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.691176470588232</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61.544117647058826</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81.397058823529406</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>121.10294117647059</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140.95588235294119</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>160.80882352941177</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180.66176470588235</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200.51470588235293</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>220.36764705882354</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>240.22058823529412</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>260.0735294117647</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>279.9264705882353</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>299.77941176470586</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>319.63235294117646</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>339.48529411764707</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>359.33823529411762</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>379.19117647058823</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>399.04411764705884</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>418.89705882352939</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>438.75</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>458.60294117647061</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>478.45588235294116</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>498.30882352941177</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>518.16176470588232</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>538.01470588235293</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>557.86764705882354</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>577.72058823529414</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>597.57352941176475</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C727-4556-BB95-D2BDAB08EFF2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1498,6 +1779,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1564,6 +1846,41 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="uk-UA"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1629,6 +1946,433 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>теоретично!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>теоретично!$E$2:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>297000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>567000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>837000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1107000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1377000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1647000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1917000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2187000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2457000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2727000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2997000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3267000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3537000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3807000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4077000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4347000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4617000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4887000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5157000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5427000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5697000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5967000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6237000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6507000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6777000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7047000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7317000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7587000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7857000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8127000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-30A5-4769-8BDF-2D560FE3B6F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1942852287"/>
+        <c:axId val="2021114783"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1942852287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="uk-UA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2021114783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2021114783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="uk-UA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1942852287"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="uk-UA"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="uk-UA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
@@ -1645,7 +2389,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Аркуш1 (2)'!$A$1:$A$30</c:f>
+              <c:f>експеримент2!$A$1:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1744,7 +2488,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Аркуш1 (2)'!$B$1:$B$30</c:f>
+              <c:f>експеримент2!$B$1:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1865,7 +2609,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Аркуш1 (2)'!$A$1:$A$30</c:f>
+              <c:f>експеримент2!$A$1:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1964,7 +2708,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Аркуш1 (2)'!$C$1:$C$30</c:f>
+              <c:f>експеримент2!$C$1:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -2085,7 +2829,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Аркуш1 (2)'!$A$1:$A$30</c:f>
+              <c:f>експеримент2!$A$1:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -2184,7 +2928,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Аркуш1 (2)'!$D$1:$D$30</c:f>
+              <c:f>експеримент2!$D$1:$D$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -2305,7 +3049,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Аркуш1 (2)'!$A$1:$A$30</c:f>
+              <c:f>експеримент2!$A$1:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -2404,7 +3148,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Аркуш1 (2)'!$E$1:$E$30</c:f>
+              <c:f>експеримент2!$E$1:$E$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -2697,7 +3441,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="uk-UA"/>
@@ -2734,7 +3478,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Аркуш1 (2)'!$A$1:$A$30</c:f>
+              <c:f>експеримент2!$A$1:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -2833,7 +3577,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Аркуш1 (2)'!$F$1:$F$30</c:f>
+              <c:f>експеримент2!$F$1:$F$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -3286,6 +4030,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4835,6 +5619,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5430,6 +6730,47 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>77705</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7019</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>368469</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>132521</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Діаграма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24ED8620-54B2-8CD7-C9D3-74DD08903C07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5829,8 +7170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D6FC07-AEE5-414F-9BC6-EA218C64D41E}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6472,11 +7813,741 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F715C420-30E1-4B53-932B-657070DF1361}">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2">
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <f>A2+1</f>
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="D2">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1">
+        <f>B2*C2*D2</f>
+        <v>297000</v>
+      </c>
+      <c r="F2" s="2">
+        <f>E2/$F$1</f>
+        <v>21.838235294117649</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B31" si="0">A3+1</f>
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>1000</v>
+      </c>
+      <c r="D3">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E31" si="1">B3*C3*D3</f>
+        <v>567000</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F31" si="2">E3/$F$1</f>
+        <v>41.691176470588232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="1"/>
+        <v>837000</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="2"/>
+        <v>61.544117647058826</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
+      <c r="D5">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="1"/>
+        <v>1107000</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="2"/>
+        <v>81.397058823529406</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="C6">
+        <v>1000</v>
+      </c>
+      <c r="D6">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="1"/>
+        <v>1377000</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="2"/>
+        <v>101.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="C7">
+        <v>1000</v>
+      </c>
+      <c r="D7">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="1"/>
+        <v>1647000</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="2"/>
+        <v>121.10294117647059</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>70</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="C8">
+        <v>1000</v>
+      </c>
+      <c r="D8">
+        <v>27</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="1"/>
+        <v>1917000</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="2"/>
+        <v>140.95588235294119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>80</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="C9">
+        <v>1000</v>
+      </c>
+      <c r="D9">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="1"/>
+        <v>2187000</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="2"/>
+        <v>160.80882352941177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>90</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="C10">
+        <v>1000</v>
+      </c>
+      <c r="D10">
+        <v>27</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="1"/>
+        <v>2457000</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="2"/>
+        <v>180.66176470588235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="C11">
+        <v>1000</v>
+      </c>
+      <c r="D11">
+        <v>27</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="1"/>
+        <v>2727000</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="2"/>
+        <v>200.51470588235293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>110</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="C12">
+        <v>1000</v>
+      </c>
+      <c r="D12">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="1"/>
+        <v>2997000</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="2"/>
+        <v>220.36764705882354</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>120</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="C13">
+        <v>1000</v>
+      </c>
+      <c r="D13">
+        <v>27</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>3267000</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="2"/>
+        <v>240.22058823529412</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>130</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>131</v>
+      </c>
+      <c r="C14">
+        <v>1000</v>
+      </c>
+      <c r="D14">
+        <v>27</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="1"/>
+        <v>3537000</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="2"/>
+        <v>260.0735294117647</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>140</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="C15">
+        <v>1000</v>
+      </c>
+      <c r="D15">
+        <v>27</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="1"/>
+        <v>3807000</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="2"/>
+        <v>279.9264705882353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>150</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>151</v>
+      </c>
+      <c r="C16">
+        <v>1000</v>
+      </c>
+      <c r="D16">
+        <v>27</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="1"/>
+        <v>4077000</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="2"/>
+        <v>299.77941176470586</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>160</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>161</v>
+      </c>
+      <c r="C17">
+        <v>1000</v>
+      </c>
+      <c r="D17">
+        <v>27</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="1"/>
+        <v>4347000</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="2"/>
+        <v>319.63235294117646</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>170</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>171</v>
+      </c>
+      <c r="C18">
+        <v>1000</v>
+      </c>
+      <c r="D18">
+        <v>27</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="1"/>
+        <v>4617000</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="2"/>
+        <v>339.48529411764707</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>180</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>181</v>
+      </c>
+      <c r="C19">
+        <v>1000</v>
+      </c>
+      <c r="D19">
+        <v>27</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="1"/>
+        <v>4887000</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>359.33823529411762</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>190</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>191</v>
+      </c>
+      <c r="C20">
+        <v>1000</v>
+      </c>
+      <c r="D20">
+        <v>27</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="1"/>
+        <v>5157000</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="2"/>
+        <v>379.19117647058823</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>200</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>201</v>
+      </c>
+      <c r="C21">
+        <v>1000</v>
+      </c>
+      <c r="D21">
+        <v>27</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="1"/>
+        <v>5427000</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="2"/>
+        <v>399.04411764705884</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>210</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>211</v>
+      </c>
+      <c r="C22">
+        <v>1000</v>
+      </c>
+      <c r="D22">
+        <v>27</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="1"/>
+        <v>5697000</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="2"/>
+        <v>418.89705882352939</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>220</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>221</v>
+      </c>
+      <c r="C23">
+        <v>1000</v>
+      </c>
+      <c r="D23">
+        <v>27</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="1"/>
+        <v>5967000</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="2"/>
+        <v>438.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>230</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>231</v>
+      </c>
+      <c r="C24">
+        <v>1000</v>
+      </c>
+      <c r="D24">
+        <v>27</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="1"/>
+        <v>6237000</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="2"/>
+        <v>458.60294117647061</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>240</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>241</v>
+      </c>
+      <c r="C25">
+        <v>1000</v>
+      </c>
+      <c r="D25">
+        <v>27</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="1"/>
+        <v>6507000</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="2"/>
+        <v>478.45588235294116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>250</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>251</v>
+      </c>
+      <c r="C26">
+        <v>1000</v>
+      </c>
+      <c r="D26">
+        <v>27</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="1"/>
+        <v>6777000</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="2"/>
+        <v>498.30882352941177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>260</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>261</v>
+      </c>
+      <c r="C27">
+        <v>1000</v>
+      </c>
+      <c r="D27">
+        <v>27</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="1"/>
+        <v>7047000</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="2"/>
+        <v>518.16176470588232</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>270</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>271</v>
+      </c>
+      <c r="C28">
+        <v>1000</v>
+      </c>
+      <c r="D28">
+        <v>27</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="1"/>
+        <v>7317000</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="2"/>
+        <v>538.01470588235293</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>280</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>281</v>
+      </c>
+      <c r="C29">
+        <v>1000</v>
+      </c>
+      <c r="D29">
+        <v>27</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="1"/>
+        <v>7587000</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="2"/>
+        <v>557.86764705882354</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>290</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>291</v>
+      </c>
+      <c r="C30">
+        <v>1000</v>
+      </c>
+      <c r="D30">
+        <v>27</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="1"/>
+        <v>7857000</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="2"/>
+        <v>577.72058823529414</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>300</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>301</v>
+      </c>
+      <c r="C31">
+        <v>1000</v>
+      </c>
+      <c r="D31">
+        <v>27</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="1"/>
+        <v>8127000</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="2"/>
+        <v>597.57352941176475</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F09C77A3-8322-468E-86BE-3E5278B672E5}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
